--- a/experiment result/128_0.9_40_zs30_kappa_lp.xlsx
+++ b/experiment result/128_0.9_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002522043023442431</v>
+        <v>0.002860345200271225</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003853517844903593</v>
+        <v>0.001940159256487282</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003872350041862771</v>
+        <v>0.01426008561745594</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006037295870273953</v>
+        <v>0.01874917854961147</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002648701030205381</v>
+        <v>0.001713757714486195</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00457422654705112</v>
+        <v>0.009871290362873437</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003902635614250438</v>
+        <v>0.005314348393876714</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.005513316484509187</v>
+        <v>0.001395132516232972</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003467978078313388</v>
+        <v>0.002353870594666713</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001984295039519095</v>
+        <v>0.02634249917390093</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003965832679105444</v>
+        <v>0.001808311927281962</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.007371857517736202</v>
+        <v>0.0122541069559475</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003659532528773468</v>
+        <v>0.008436220865847995</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01488325221275911</v>
+        <v>0.008740159152167793</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01317765410004972</v>
+        <v>0.01673818062186675</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.003990409943344534</v>
+        <v>0.03056574236509759</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00634616668068935</v>
+        <v>0.003709569936856749</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0009159542769298003</v>
+        <v>0.0001937170962549786</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.004230423197876421</v>
+        <v>0.01422927329687674</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003544439297838982</v>
+        <v>0.007381181708879888</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00211087449403337</v>
+        <v>0.002949531361740907</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.003211796479776144</v>
+        <v>0.005854486788965153</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002181618665285528</v>
+        <v>0.00140643411792095</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001083075897038147</v>
+        <v>0.0003709412353080227</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01452016815574553</v>
+        <v>0.004299600043664234</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.009167197276645528</v>
+        <v>0.06005282041888832</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02977868956352592</v>
+        <v>0.003256085924672704</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003597453346370703</v>
+        <v>0.005717966747512004</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002996590903508667</v>
+        <v>0.03613789715183729</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.003848200621705319</v>
+        <v>0.01639051159435381</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01730857405512829</v>
+        <v>0.003310991681833553</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002508583151584156</v>
+        <v>0.005804846492248356</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.003506741044695248</v>
+        <v>0.01550216328467694</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.003145452986877742</v>
+        <v>0.001344668710400685</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.004328379025284121</v>
+        <v>0.008732869603001917</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.006329248141567777</v>
+        <v>0.01379354841959208</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.004067154661451726</v>
+        <v>0.001118931765737585</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.004130883294855701</v>
+        <v>0.0006785367311286374</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003727723007227588</v>
+        <v>0.01110586320930244</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.008301681411754119</v>
+        <v>0.0531532775928175</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02240004256655432</v>
+        <v>0.0127829139927472</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.001614531366387304</v>
+        <v>0.00246315938488532</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.004809923122522465</v>
+        <v>0.02098218686772881</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.004000261973953314</v>
+        <v>0.02375100659679132</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01134537805012856</v>
+        <v>0.06175218678288424</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.004857717334494419</v>
+        <v>0.001513981564983148</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.008258109238521178</v>
+        <v>0.07083408111876163</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02181268592452049</v>
+        <v>0.006003137340712512</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.006433202692475067</v>
+        <v>0.002703819255974636</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01003744977465895</v>
+        <v>0.0008866646435556009</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005303610158505637</v>
+        <v>0.04389273148155589</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.002562668157705343</v>
+        <v>0.0075054575025279</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001650363002971406</v>
+        <v>0.001869112541643054</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.002994475728509458</v>
+        <v>0.006233896381582902</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01081390868931565</v>
+        <v>0.004907560521500246</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01892324663677078</v>
+        <v>0.00314020856510687</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.001433465538411845</v>
+        <v>0.01320648669600475</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02283559624504979</v>
+        <v>0.02579574001856642</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008835557706549054</v>
+        <v>0.005357945310574453</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.001571162261621467</v>
+        <v>0.001103924060629293</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0003247123580912779</v>
+        <v>0.000186393952884266</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.003874771011683981</v>
+        <v>0.003075121707094718</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.002523290647303952</v>
+        <v>0.0004601553786997495</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.003029470010376804</v>
+        <v>0.0001704913389109453</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.003974041951776859</v>
+        <v>0.002726157470385794</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.007197187126991722</v>
+        <v>0.02320223661520666</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003895756135006965</v>
+        <v>0.01257911102903991</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01796906043427058</v>
+        <v>0.02036112626652443</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006149448081374426</v>
+        <v>0.01126951809140134</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.002352572303583111</v>
+        <v>0.005570706600975828</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.002202636579818401</v>
+        <v>0.007266175155305911</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0004476751013013864</v>
+        <v>8.962662296229797e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003019730588702375</v>
+        <v>0.01212919041003956</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001723881399533562</v>
+        <v>0.008377938934970929</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01035235784084635</v>
+        <v>0.02814676089241589</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00388247771206905</v>
+        <v>0.005737139854310245</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0178415893369256</v>
+        <v>0.0002147948712147256</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004663484756756997</v>
+        <v>0.002024397412742041</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.004732729772492623</v>
+        <v>0.004580367554854145</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003126736528422581</v>
+        <v>0.004982166751984031</v>
       </c>
     </row>
   </sheetData>
